--- a/Android/Basic/App.xlsx
+++ b/Android/Basic/App.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
-    <sheet name="MVC" sheetId="1" r:id="rId2"/>
-    <sheet name="MVP" sheetId="3" r:id="rId3"/>
-    <sheet name="MVVM" sheetId="5" r:id="rId4"/>
-    <sheet name="MVC MVP MVVM的异同比较及总结" sheetId="6" r:id="rId5"/>
-    <sheet name="附录资料" sheetId="4" r:id="rId6"/>
+    <sheet name="Android中的四大组件" sheetId="7" r:id="rId2"/>
+    <sheet name="Intent 和 Intent 过滤器" sheetId="8" r:id="rId3"/>
+    <sheet name="MVC" sheetId="1" r:id="rId4"/>
+    <sheet name="MVP" sheetId="3" r:id="rId5"/>
+    <sheet name="MVVM" sheetId="5" r:id="rId6"/>
+    <sheet name="附录资料" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="185">
   <si>
     <t>MVC 框架模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,377 +134,492 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M层适合做一些业务逻辑处理，比如数据库存取操作、网络操作、复杂的算法等耗时操作</t>
+  </si>
+  <si>
+    <t>V层显示数据部分，XML布局可以视为是V层，显示Model层的数据结果</t>
+  </si>
+  <si>
+    <t>C层适合使用Activity担当，Android中Activity用于处理用户交互问题（发起业务请求），读取用户输入（等待业务处理结果），响应用户点击等等事件</t>
+  </si>
+  <si>
+    <t>MVC 的优缺点及适用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：</t>
+  </si>
+  <si>
+    <t>耦合性低，MVC本质是分层解耦，将表现层与表现逻辑很好的分离，减少模块代码之间的相互影响.</t>
+  </si>
+  <si>
+    <t>可扩展性好。由于耦合性低，添加需求，扩展代码就可以减少修改之前的代码，降低bug的出现率.</t>
+  </si>
+  <si>
+    <t>模块职责划分明确。主要划分层M,V,C三个模块，利于代码的维护.</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View接受用户的交互请求</t>
+  </si>
+  <si>
+    <t>View将请求转交给Controller</t>
+  </si>
+  <si>
+    <t>Controller(用户做的动作比如：update数据，删除指定名字的学生等等)操作Model进行数据更新(根据用户指示，执行底层的数据动作等等)</t>
+  </si>
+  <si>
+    <t>数据更新之后，Model通知View数据变化</t>
+  </si>
+  <si>
+    <t>View显示更新之后的数据</t>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点：</t>
+  </si>
+  <si>
+    <t>View层和Model层是相互可知的，这意味着两层之间存在耦合；</t>
+  </si>
+  <si>
+    <t>在Android开发中，xml作为View层，控制能力实在太弱了，只能把代码写在Activity中</t>
+  </si>
+  <si>
+    <t>造成了Activity既是Controller层，又是view层这样一个窘境</t>
+  </si>
+  <si>
+    <t>而且Activity并不是一个标准的MVC模式中的Controller，它的首要职责是加载应用的布局和初始化用户界面</t>
+  </si>
+  <si>
+    <t>并接受和处理来自用户的操作请求，进而作出响应。随着应用内界面及其逻辑的复杂度不断提升，Activity类的职责不断增加，以致变得庞大而臃肿。</t>
+  </si>
+  <si>
+    <t>适用场景：</t>
+  </si>
+  <si>
+    <t>适用场景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用于功能较少、业务逻辑简单、界面不复杂的小型项目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVP 框架模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVP全称Model View Presenter，它是MVC的一个演化版本，常用MVP结构如下图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的存取(Model):</t>
+  </si>
+  <si>
+    <t>Model角色主要是提供数据的存取功能，Presenter需要通过Model层存取、获取数据，Model就像一个数据仓库</t>
+  </si>
+  <si>
+    <t>更直白说Model是封装了数据DAO、网络获取数据的角色，或者是两种数据获取方式的集合。</t>
+  </si>
+  <si>
+    <t>用户界面(View):</t>
+  </si>
+  <si>
+    <t>View通常指Activity、Fragment或者某个View控件，它含有一个Presenter成员变量。</t>
+  </si>
+  <si>
+    <t>通常View需要实现一个逻辑接口，将View上的操作转交给Presenter进行实现</t>
+  </si>
+  <si>
+    <t>最后，Presenter将调用View逻辑接口将结果返回给View元素。</t>
+  </si>
+  <si>
+    <t>交互中间人(Presenter):</t>
+  </si>
+  <si>
+    <t>Presenter主要作为View和Model的桥梁，它从Model层检索数据后，返回给View</t>
+  </si>
+  <si>
+    <t>使得View和Model之间没有耦合，也将业务逻辑从View层上抽离出来。</t>
+  </si>
+  <si>
+    <t>MVP并没有一个标准的模式，它有很多的实现方式，但无论如何，只要保证：</t>
+  </si>
+  <si>
+    <t>通过Presenter将View和Model解耦合、降低类型复杂度、各个模块可以独立测试、独立变化，这就是正确的方向</t>
+  </si>
+  <si>
+    <t>MVP模式最重要的实现方式是：</t>
+  </si>
+  <si>
+    <t>分离显示层和逻辑层，使它们通过接口进行通信,降低耦合；</t>
+  </si>
+  <si>
+    <t>理想的MVP模式可以实现一份逻辑代码搭配不同的显示界面，因为它们之间不依赖具体实现，而是依赖于抽象。</t>
+  </si>
+  <si>
+    <t>Android应用程序中，MVP框架是如何实现的？都充当什么角色？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View接受用户的交互请求；</t>
+  </si>
+  <si>
+    <t>View通过Presenter暴露接口将请求转交给Presenter来进行处理；</t>
+  </si>
+  <si>
+    <t>Presenter 通过Model暴露接口对Model进行操作和更新；</t>
+  </si>
+  <si>
+    <t>Model改变后，可以将改变的信息发送至Presenter；</t>
+  </si>
+  <si>
+    <t>Presenter通过View暴露接口对View进行视图更新；</t>
+  </si>
+  <si>
+    <t>M层提供数据上的存取，比如数据库存取操作、网络操作、复杂的算法等操作</t>
+  </si>
+  <si>
+    <t>V层负责显示数据部分，显示Model层的数据结果，Activity、Fragment或者某个View控件可以视为是V层</t>
+  </si>
+  <si>
+    <t>P层更多的是作为V层和M层的桥梁，主要负责相关的业务逻辑。</t>
+  </si>
+  <si>
+    <t>MVP还有很多演化版本和分支版本，它不存在标准和固定的模式，只要是符合上面提到的实现方式，它就是合理的。</t>
+  </si>
+  <si>
+    <t>MVP的优缺点及适用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过P层的转接能避免业务逻辑被塞进View中，有效的降低View的复杂性</t>
+  </si>
+  <si>
+    <t>View层和Model层完全解耦，他们之间互不干扰，带来了良好的可拓展性、可测试性，保证了系统的灵活性和整洁性</t>
+  </si>
+  <si>
+    <t>Activity、Fragment等仅仅为View层，不会再出现MVC那种Activity、Fragment即做View层又做Controller层的窘境，View层及Model层大大提高复用性</t>
+  </si>
+  <si>
+    <t>我们可以将一个Presenter用于多个视图，而不需要改变Presenter的逻辑。这个也是我上面提到的理想的MVP模式</t>
+  </si>
+  <si>
+    <t>由于各层分工明确，极便于单元测试</t>
+  </si>
+  <si>
+    <t>缺点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVP是以UI为驱动的模型，更新UI时需要保证能获取到控件的引用，同时更新UI时也要考虑当前是否是UI线程</t>
+  </si>
+  <si>
+    <t>复杂的业务同时也可能会导致P层太大，代码臃肿的问题依然不能解决</t>
+  </si>
+  <si>
+    <t>MVP通过接口进行交互的，接口粒度不好设计和控制。粒度太小，就会存在大量接口；粒度太大，解耦效果不好</t>
+  </si>
+  <si>
+    <t>MVP数据都是被动地通过UI控件做展示，但是由于数据的时变性，我们更希望数据能转被动为主动，使数据能更有活性，由数据来驱动UI</t>
+  </si>
+  <si>
+    <t>适用场景:</t>
+  </si>
+  <si>
+    <t>适用于界面复杂、复用性高、功能中等、业务逻辑中等或是简单的项目。</t>
+  </si>
+  <si>
+    <t>实际上MVP的思想很适合用于复杂的界面上，我们完全可以在项目中某一部分上使用MVP的思想去灵活实现</t>
+  </si>
+  <si>
+    <t>网址参照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/2c4919302f81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子：Android源码NavigationView、官方MVP例子：https://github.com/android/architecture-samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo-mvp</t>
+  </si>
+  <si>
+    <t>MVVM 框架模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android MVVM，Google 2015年推出的DataBinding框架。</t>
+  </si>
+  <si>
+    <t>然而两者的概念是不一样的，不能混为一谈。</t>
+  </si>
+  <si>
+    <t>MVVM是一种架构模式，而DataBinding是一个实现数据和UI绑定的框架，是构建MVVM模式的一个工具。</t>
+  </si>
+  <si>
+    <t>MVVM全称Model View ViewModel，你可以把MVP看做是MVVM的一个改进版本，常用的MVVM结构如下图：</t>
+  </si>
+  <si>
+    <t>Model主要是封装数据存储或操作的一些逻辑，还会提供一系列的实体类用于UI绑定</t>
+  </si>
+  <si>
+    <t>ViewModel 则会在修改这些数据后将数据改变告诉View层并使UI更新。</t>
+  </si>
+  <si>
+    <t>View用于处理界面的逻辑且不参与业务逻辑相关的操作，只负责显示由ViewModel提供的数据</t>
+  </si>
+  <si>
+    <t>View层不做任何业务逻辑、不涉及操作数据、不处理数据，UI和数据严格的分开,对应于Activity和XML。</t>
+  </si>
+  <si>
+    <t>ViewModel:</t>
+  </si>
+  <si>
+    <t>ViewModel层做的事情刚好和View层相反，ViewModel只做和业务逻辑和业务数据相关的事，不做任何和UI相关的事情</t>
+  </si>
+  <si>
+    <t>ViewModel层不会持有任何控件的引用，更不会在ViewModel中通过UI控件的引用去做更新UI的事情。</t>
+  </si>
+  <si>
+    <t>ViewModel就是专注于业务的逻辑处理，做的事情也都只是对数据的操作（这些数据绑定在相应的控件上会自动去更改UI）。</t>
+  </si>
+  <si>
+    <t>同时DataBinding框架已经支持双向绑定，让我们可以通过双向绑定获取View层反馈给ViewModel层的数据，并对这些数据进行操作。</t>
+  </si>
+  <si>
+    <t>MVVM的目标和思想与MVP类似</t>
+  </si>
+  <si>
+    <t>利用数据绑定(Data Binding)、依赖属性(Dependency Property)、命令(Command)、路由事件(Routed Event)等新特性，打造了一个更加灵活高效的架构</t>
+  </si>
+  <si>
+    <t>在常规的开发模式中，数据变化需要更新UI的时候，需要先获取UI控件的引用，然后再更新UI，获取用户的输入和操作也需要通过UI控件的引用</t>
+  </si>
+  <si>
+    <t>但在MVVM中，这些都是通过数据驱动来自动完成的，数据变化后会自动更新UI，UI的改变也能自动反馈到数据层，数据成为主导因素。</t>
+  </si>
+  <si>
+    <t>这样MVVM层在业务逻辑处理中只要关心数据，不需要直接和UI打交道，在业务处理过程中简单方便很多。</t>
+  </si>
+  <si>
+    <t>MVVM模式中，数据是独立于UI的，数据和业务逻辑处于一个独立的ViewModel中，ViewModel只需要关注数据和业务逻辑，不需要和UI或者控件打交道。</t>
+  </si>
+  <si>
+    <t>UI想怎么显示数据都由UI自己决定，ViewModel不涉及任何和UI相关的事，也不持有UI控件的引用。</t>
+  </si>
+  <si>
+    <t>即便是控件改变了（比如：TextView换成EditText），ViewModel也几乎不需要更改任何代码。</t>
+  </si>
+  <si>
+    <t>它非常完美的解耦了View层和ViewModel，解决了上面我们所说的MVP的痛点。</t>
+  </si>
+  <si>
+    <t>MVVM的优缺点及适用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点:</t>
+  </si>
+  <si>
+    <t>低耦合，数据和业务逻辑处于一个独立的ViewModel中，ViewModel只需要关注数据和业务逻辑，不需要和View层打交道。</t>
+  </si>
+  <si>
+    <t>可重用性，你可以把一些视图逻辑放在一个ViewModel里面，让很多view重用这段视图逻辑。</t>
+  </si>
+  <si>
+    <t>可分开独立开发，MVVM的分工是非常明显的，由于View和ViewModel之间是松散耦合的：一个是处理业务和数据、一个是专门的UI处理。所以，完全可以由两个人分工来做，一个做UI（XML和Activity）一个写ViewModel，效率更高。</t>
+  </si>
+  <si>
+    <t>由于各层分工明确，极便于单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对于MVP而言，MVVM不需要我们手动的处理大量的View和Model相关操作，也非常完美的解耦了View层和ViewModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据绑定使得 Bug 很难被调试，你看到界面异常了，有可能是你 View 的代码有 Bug，也可能是 Model 的代码有问题。数据绑定使得一个位置的 Bug 被快速传递到别的位置，要定位原始出问题的地方就变得不那么容易了。</t>
+  </si>
+  <si>
+    <t>对于过大的项目，数据绑定需要花费更多的内存，而对与过于简单的界面，使用MVVM无异是杀鸡用牛刀，某种意义上来说，我认为就是数据绑定使得 MVVM 变得复杂和难用了。</t>
+  </si>
+  <si>
+    <t>缺点:</t>
+  </si>
+  <si>
+    <t>MVVM是不适用于简单的界面和极度复杂的界面，在界面简单的情况下，MVVM反而将我们的逻辑复杂化了，而界面元素过多</t>
+  </si>
+  <si>
+    <t>相对应的ViewModel的构建和维护成本就会变的很高，不利于项目的发展。</t>
+  </si>
+  <si>
     <t>MVVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M层适合做一些业务逻辑处理，比如数据库存取操作、网络操作、复杂的算法等耗时操作</t>
-  </si>
-  <si>
-    <t>V层显示数据部分，XML布局可以视为是V层，显示Model层的数据结果</t>
-  </si>
-  <si>
-    <t>C层适合使用Activity担当，Android中Activity用于处理用户交互问题（发起业务请求），读取用户输入（等待业务处理结果），响应用户点击等等事件</t>
-  </si>
-  <si>
-    <t>MVC 的优缺点及适用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优点：</t>
-  </si>
-  <si>
-    <t>耦合性低，MVC本质是分层解耦，将表现层与表现逻辑很好的分离，减少模块代码之间的相互影响.</t>
-  </si>
-  <si>
-    <t>可扩展性好。由于耦合性低，添加需求，扩展代码就可以减少修改之前的代码，降低bug的出现率.</t>
-  </si>
-  <si>
-    <t>模块职责划分明确。主要划分层M,V,C三个模块，利于代码的维护.</t>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View接受用户的交互请求</t>
-  </si>
-  <si>
-    <t>View将请求转交给Controller</t>
-  </si>
-  <si>
-    <t>Controller(用户做的动作比如：update数据，删除指定名字的学生等等)操作Model进行数据更新(根据用户指示，执行底层的数据动作等等)</t>
-  </si>
-  <si>
-    <t>数据更新之后，Model通知View数据变化</t>
-  </si>
-  <si>
-    <t>View显示更新之后的数据</t>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺点：</t>
-  </si>
-  <si>
-    <t>View层和Model层是相互可知的，这意味着两层之间存在耦合；</t>
-  </si>
-  <si>
-    <t>在Android开发中，xml作为View层，控制能力实在太弱了，只能把代码写在Activity中</t>
-  </si>
-  <si>
-    <t>造成了Activity既是Controller层，又是view层这样一个窘境</t>
-  </si>
-  <si>
-    <t>而且Activity并不是一个标准的MVC模式中的Controller，它的首要职责是加载应用的布局和初始化用户界面</t>
-  </si>
-  <si>
-    <t>并接受和处理来自用户的操作请求，进而作出响应。随着应用内界面及其逻辑的复杂度不断提升，Activity类的职责不断增加，以致变得庞大而臃肿。</t>
-  </si>
-  <si>
-    <t>适用场景：</t>
-  </si>
-  <si>
-    <t>适用场景：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用于功能较少、业务逻辑简单、界面不复杂的小型项目。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVP 框架模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVP全称Model View Presenter，它是MVC的一个演化版本，常用MVP结构如下图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据的存取(Model):</t>
-  </si>
-  <si>
-    <t>Model角色主要是提供数据的存取功能，Presenter需要通过Model层存取、获取数据，Model就像一个数据仓库</t>
-  </si>
-  <si>
-    <t>更直白说Model是封装了数据DAO、网络获取数据的角色，或者是两种数据获取方式的集合。</t>
-  </si>
-  <si>
-    <t>用户界面(View):</t>
-  </si>
-  <si>
-    <t>View通常指Activity、Fragment或者某个View控件，它含有一个Presenter成员变量。</t>
-  </si>
-  <si>
-    <t>通常View需要实现一个逻辑接口，将View上的操作转交给Presenter进行实现</t>
-  </si>
-  <si>
-    <t>最后，Presenter将调用View逻辑接口将结果返回给View元素。</t>
-  </si>
-  <si>
-    <t>交互中间人(Presenter):</t>
-  </si>
-  <si>
-    <t>Presenter主要作为View和Model的桥梁，它从Model层检索数据后，返回给View</t>
-  </si>
-  <si>
-    <t>使得View和Model之间没有耦合，也将业务逻辑从View层上抽离出来。</t>
-  </si>
-  <si>
-    <t>MVP并没有一个标准的模式，它有很多的实现方式，但无论如何，只要保证：</t>
-  </si>
-  <si>
-    <t>通过Presenter将View和Model解耦合、降低类型复杂度、各个模块可以独立测试、独立变化，这就是正确的方向</t>
-  </si>
-  <si>
-    <t>MVP模式最重要的实现方式是：</t>
-  </si>
-  <si>
-    <t>分离显示层和逻辑层，使它们通过接口进行通信,降低耦合；</t>
-  </si>
-  <si>
-    <t>理想的MVP模式可以实现一份逻辑代码搭配不同的显示界面，因为它们之间不依赖具体实现，而是依赖于抽象。</t>
-  </si>
-  <si>
-    <t>Android应用程序中，MVP框架是如何实现的？都充当什么角色？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View接受用户的交互请求；</t>
-  </si>
-  <si>
-    <t>View通过Presenter暴露接口将请求转交给Presenter来进行处理；</t>
-  </si>
-  <si>
-    <t>Presenter 通过Model暴露接口对Model进行操作和更新；</t>
-  </si>
-  <si>
-    <t>Model改变后，可以将改变的信息发送至Presenter；</t>
-  </si>
-  <si>
-    <t>Presenter通过View暴露接口对View进行视图更新；</t>
-  </si>
-  <si>
-    <t>M层提供数据上的存取，比如数据库存取操作、网络操作、复杂的算法等操作</t>
-  </si>
-  <si>
-    <t>V层负责显示数据部分，显示Model层的数据结果，Activity、Fragment或者某个View控件可以视为是V层</t>
-  </si>
-  <si>
-    <t>P层更多的是作为V层和M层的桥梁，主要负责相关的业务逻辑。</t>
-  </si>
-  <si>
-    <t>MVP还有很多演化版本和分支版本，它不存在标准和固定的模式，只要是符合上面提到的实现方式，它就是合理的。</t>
-  </si>
-  <si>
-    <t>MVP的优缺点及适用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过P层的转接能避免业务逻辑被塞进View中，有效的降低View的复杂性</t>
-  </si>
-  <si>
-    <t>View层和Model层完全解耦，他们之间互不干扰，带来了良好的可拓展性、可测试性，保证了系统的灵活性和整洁性</t>
-  </si>
-  <si>
-    <t>Activity、Fragment等仅仅为View层，不会再出现MVC那种Activity、Fragment即做View层又做Controller层的窘境，View层及Model层大大提高复用性</t>
-  </si>
-  <si>
-    <t>我们可以将一个Presenter用于多个视图，而不需要改变Presenter的逻辑。这个也是我上面提到的理想的MVP模式</t>
-  </si>
-  <si>
-    <t>由于各层分工明确，极便于单元测试</t>
-  </si>
-  <si>
-    <t>缺点：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVP是以UI为驱动的模型，更新UI时需要保证能获取到控件的引用，同时更新UI时也要考虑当前是否是UI线程</t>
-  </si>
-  <si>
-    <t>复杂的业务同时也可能会导致P层太大，代码臃肿的问题依然不能解决</t>
-  </si>
-  <si>
-    <t>MVP通过接口进行交互的，接口粒度不好设计和控制。粒度太小，就会存在大量接口；粒度太大，解耦效果不好</t>
-  </si>
-  <si>
-    <t>MVP数据都是被动地通过UI控件做展示，但是由于数据的时变性，我们更希望数据能转被动为主动，使数据能更有活性，由数据来驱动UI</t>
-  </si>
-  <si>
-    <t>适用场景:</t>
-  </si>
-  <si>
-    <t>适用于界面复杂、复用性高、功能中等、业务逻辑中等或是简单的项目。</t>
-  </si>
-  <si>
-    <t>实际上MVP的思想很适合用于复杂的界面上，我们完全可以在项目中某一部分上使用MVP的思想去灵活实现</t>
-  </si>
-  <si>
-    <t>网址参照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jianshu.com/p/2c4919302f81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本概念说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例子：Android源码NavigationView、官方MVP例子：https://github.com/android/architecture-samples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>todo-mvp</t>
-  </si>
-  <si>
-    <t>MVVM 框架模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android MVVM，Google 2015年推出的DataBinding框架。</t>
-  </si>
-  <si>
-    <t>然而两者的概念是不一样的，不能混为一谈。</t>
-  </si>
-  <si>
-    <t>MVVM是一种架构模式，而DataBinding是一个实现数据和UI绑定的框架，是构建MVVM模式的一个工具。</t>
-  </si>
-  <si>
-    <t>MVVM全称Model View ViewModel，你可以把MVP看做是MVVM的一个改进版本，常用的MVVM结构如下图：</t>
-  </si>
-  <si>
-    <t>Model主要是封装数据存储或操作的一些逻辑，还会提供一系列的实体类用于UI绑定</t>
-  </si>
-  <si>
-    <t>ViewModel 则会在修改这些数据后将数据改变告诉View层并使UI更新。</t>
-  </si>
-  <si>
-    <t>View用于处理界面的逻辑且不参与业务逻辑相关的操作，只负责显示由ViewModel提供的数据</t>
-  </si>
-  <si>
-    <t>View层不做任何业务逻辑、不涉及操作数据、不处理数据，UI和数据严格的分开,对应于Activity和XML。</t>
-  </si>
-  <si>
-    <t>ViewModel:</t>
-  </si>
-  <si>
-    <t>ViewModel层做的事情刚好和View层相反，ViewModel只做和业务逻辑和业务数据相关的事，不做任何和UI相关的事情</t>
-  </si>
-  <si>
-    <t>ViewModel层不会持有任何控件的引用，更不会在ViewModel中通过UI控件的引用去做更新UI的事情。</t>
-  </si>
-  <si>
-    <t>ViewModel就是专注于业务的逻辑处理，做的事情也都只是对数据的操作（这些数据绑定在相应的控件上会自动去更改UI）。</t>
-  </si>
-  <si>
-    <t>同时DataBinding框架已经支持双向绑定，让我们可以通过双向绑定获取View层反馈给ViewModel层的数据，并对这些数据进行操作。</t>
-  </si>
-  <si>
-    <t>MVVM的目标和思想与MVP类似</t>
-  </si>
-  <si>
-    <t>利用数据绑定(Data Binding)、依赖属性(Dependency Property)、命令(Command)、路由事件(Routed Event)等新特性，打造了一个更加灵活高效的架构</t>
-  </si>
-  <si>
-    <t>在常规的开发模式中，数据变化需要更新UI的时候，需要先获取UI控件的引用，然后再更新UI，获取用户的输入和操作也需要通过UI控件的引用</t>
-  </si>
-  <si>
-    <t>但在MVVM中，这些都是通过数据驱动来自动完成的，数据变化后会自动更新UI，UI的改变也能自动反馈到数据层，数据成为主导因素。</t>
-  </si>
-  <si>
-    <t>这样MVVM层在业务逻辑处理中只要关心数据，不需要直接和UI打交道，在业务处理过程中简单方便很多。</t>
-  </si>
-  <si>
-    <t>MVVM模式中，数据是独立于UI的，数据和业务逻辑处于一个独立的ViewModel中，ViewModel只需要关注数据和业务逻辑，不需要和UI或者控件打交道。</t>
-  </si>
-  <si>
-    <t>UI想怎么显示数据都由UI自己决定，ViewModel不涉及任何和UI相关的事，也不持有UI控件的引用。</t>
-  </si>
-  <si>
-    <t>即便是控件改变了（比如：TextView换成EditText），ViewModel也几乎不需要更改任何代码。</t>
-  </si>
-  <si>
-    <t>它非常完美的解耦了View层和ViewModel，解决了上面我们所说的MVP的痛点。</t>
-  </si>
-  <si>
-    <t>MVVM的优缺点及适用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优点:</t>
-  </si>
-  <si>
-    <t>低耦合，数据和业务逻辑处于一个独立的ViewModel中，ViewModel只需要关注数据和业务逻辑，不需要和View层打交道。</t>
-  </si>
-  <si>
-    <t>可重用性，你可以把一些视图逻辑放在一个ViewModel里面，让很多view重用这段视图逻辑。</t>
-  </si>
-  <si>
-    <t>可分开独立开发，MVVM的分工是非常明显的，由于View和ViewModel之间是松散耦合的：一个是处理业务和数据、一个是专门的UI处理。所以，完全可以由两个人分工来做，一个做UI（XML和Activity）一个写ViewModel，效率更高。</t>
-  </si>
-  <si>
-    <t>由于各层分工明确，极便于单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对于MVP而言，MVVM不需要我们手动的处理大量的View和Model相关操作，也非常完美的解耦了View层和ViewModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据绑定使得 Bug 很难被调试，你看到界面异常了，有可能是你 View 的代码有 Bug，也可能是 Model 的代码有问题。数据绑定使得一个位置的 Bug 被快速传递到别的位置，要定位原始出问题的地方就变得不那么容易了。</t>
-  </si>
-  <si>
-    <t>对于过大的项目，数据绑定需要花费更多的内存，而对与过于简单的界面，使用MVVM无异是杀鸡用牛刀，某种意义上来说，我认为就是数据绑定使得 MVVM 变得复杂和难用了。</t>
-  </si>
-  <si>
-    <t>缺点:</t>
-  </si>
-  <si>
-    <t>MVVM是不适用于简单的界面和极度复杂的界面，在界面简单的情况下，MVVM反而将我们的逻辑复杂化了，而界面元素过多</t>
-  </si>
-  <si>
-    <t>相对应的ViewModel的构建和维护成本就会变的很高，不利于项目的发展。</t>
+    <t>Android中的四大组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android中的四大组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>ContentProvider</t>
+  </si>
+  <si>
+    <t>BroadCastReceiver</t>
+  </si>
+  <si>
+    <t>Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity 类是 Android 应用的关键组件，而 Activity 的启动和组合方式则是该平台应用模型的基本组成部分。</t>
+  </si>
+  <si>
+    <t>在编程范式中，应用是通过 main() 方法启动的，而 Android 系统与此不同</t>
+  </si>
+  <si>
+    <t>它会调用与其生命周期特定阶段相对应的特定回调方法来启动 Activity 实例中的代码。</t>
+  </si>
+  <si>
+    <t>Activity 简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity 概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动应用体验与桌面体验的不同之处在于，用户与应用的互动并不总是在同一位置开始，而是经常以不确定的方式开始。</t>
+  </si>
+  <si>
+    <t>例如，如果您从主屏幕打开电子邮件应用，可能会看到电子邮件列表，如果您通过社交媒体应用启动电子邮件应用，则可能会直接进入电子邮件应用的邮件撰写界面。</t>
+  </si>
+  <si>
+    <t>Activity 类的目的就是促进这种范式的实现。</t>
+  </si>
+  <si>
+    <t>当一个应用调用另一个应用时，调用方应用会调用另一个应用中的 Activity，而不是整个应用。通过这种方式，Activity 充当了应用与用户互动的入口点。</t>
+  </si>
+  <si>
+    <t>您可以将 Activity 实现为 Activity 类的子类。</t>
+  </si>
+  <si>
+    <t>Activity 提供窗口供应用在其中绘制界面。</t>
+  </si>
+  <si>
+    <t>此窗口通常会填满屏幕，但也可能比屏幕小，并浮动在其他窗口上面。</t>
+  </si>
+  <si>
+    <t>通常，一个 Activity 实现应用中的一个屏幕。例如，应用中的一个 Activity 实现“偏好设置”屏幕，而另一个 Activity 实现“选择照片”屏幕。</t>
+  </si>
+  <si>
+    <t>大多数应用包含多个屏幕，这意味着它们包含多个 Activity。</t>
+  </si>
+  <si>
+    <t>通常，应用中的一个 Activity 会被指定为主 Activity，这是用户启动应用时出现的第一个屏幕。</t>
+  </si>
+  <si>
+    <t>然后，每个 Activity 可以启动另一个 Activity，以执行不同的操作。</t>
+  </si>
+  <si>
+    <t>例如，一个简单的电子邮件应用中的主 Activity 可能会提供显示电子邮件收件箱的屏幕。主 Activity 可能会从该屏幕启动其他 Activity，以提供执行写邮件和打开邮件这类任务的屏幕。</t>
+  </si>
+  <si>
+    <t>虽然应用中的各个 Activity 协同工作形成统一的用户体验，但每个 Activity 与其他 Activity 之间只存在松散的关联，应用内不同 Activity 之间的依赖关系通常很小。</t>
+  </si>
+  <si>
+    <t>事实上，Activity 经常会启动属于其他应用的 Activity。例如，浏览器应用可能会启动社交媒体应用的“分享”Activity。</t>
+  </si>
+  <si>
+    <t>https://developer.android.google.cn/guide/components/activities/intro-activities?hl=zh-cn#java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity简介及相关知识点整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVC、MVP、MVVM基础知识点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intent 和 Intent 过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intent 和 Intent 过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intent 和 Intent 过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://developer.android.google.cn/guide/components/intents-filters?hl=zh-cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVC、MVP、MVVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intent 和 Intent 过滤器知识点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -596,95 +712,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,7 +722,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,28 +750,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,13 +969,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>69929</xdr:rowOff>
+      <xdr:rowOff>88979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -981,7 +993,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="600076" y="685800"/>
+          <a:off x="600076" y="704850"/>
           <a:ext cx="3619500" cy="1955879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1339,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:E7"/>
+  <dimension ref="D3:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -1357,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="4:5">
@@ -1365,14 +1377,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="4:5">
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1380,12 +1392,26 @@
       <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" location="MVC!A1" display="MVC"/>
-    <hyperlink ref="E5" location="MVP!A1" display="MVP"/>
+    <hyperlink ref="E6" location="MVC!A1" display="MVC"/>
+    <hyperlink ref="E7" location="MVP!A1" display="MVP"/>
+    <hyperlink ref="E8" location="MVVM!A1" display="MVVM"/>
+    <hyperlink ref="E4" location="Android中的四大组件!A1" display="Android中的四大组件"/>
+    <hyperlink ref="E5" location="'Intent 和 Intent 过滤器'!A1" display="Intent 和 Intent 过滤器"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1393,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:AU136"/>
+  <dimension ref="A3:AU35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86:E90"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -1408,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1455,341 +1481,241 @@
       <c r="AU3" s="1"/>
     </row>
     <row r="4" spans="1:47">
-      <c r="D4" t="s">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:47">
-      <c r="D5" t="s">
-        <v>3</v>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:47">
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47">
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:47">
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47">
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="5:13">
-      <c r="E33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="5:13">
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="5:13">
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="5:13">
-      <c r="E47" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="5:13">
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5">
-      <c r="E54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5">
-      <c r="E58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5">
-      <c r="E61" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5">
-      <c r="E62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5">
-      <c r="E63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5">
-      <c r="E64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5">
-      <c r="E66" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6">
-      <c r="E82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="5:6">
-      <c r="E84" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6">
-      <c r="E86" t="s">
-        <v>46</v>
-      </c>
-      <c r="F86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="5:6">
-      <c r="E87" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="5:6">
-      <c r="E88" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6">
-      <c r="E89" t="s">
-        <v>54</v>
-      </c>
-      <c r="F89" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6">
-      <c r="E90" t="s">
-        <v>55</v>
-      </c>
-      <c r="F90" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="5:13">
-      <c r="E115" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="5:13">
-      <c r="E117" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="5:13">
-      <c r="E119" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="5:13">
-      <c r="E122" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-    </row>
-    <row r="123" spans="5:13">
-      <c r="E123" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="5:13">
-      <c r="E124" t="s">
-        <v>46</v>
-      </c>
-      <c r="F124" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="5:13">
-      <c r="E125" t="s">
-        <v>47</v>
-      </c>
-      <c r="F125" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="5:13">
-      <c r="E126" t="s">
-        <v>48</v>
-      </c>
-      <c r="F126" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" spans="5:13">
-      <c r="E128" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6">
-      <c r="E129" t="s">
-        <v>46</v>
-      </c>
-      <c r="F129" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6">
-      <c r="E130" t="s">
-        <v>47</v>
-      </c>
-      <c r="F130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="5:6">
-      <c r="F131" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6">
-      <c r="F132" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="5:6">
-      <c r="F133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="5:6">
-      <c r="E135" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="136" spans="5:6">
-      <c r="F136" t="s">
-        <v>64</v>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+    </row>
+    <row r="18" spans="1:47">
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="D22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47">
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47">
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:AU75"/>
+  <dimension ref="A3:AU3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D46"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -1801,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1847,285 +1773,17 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
     </row>
-    <row r="4" spans="1:47">
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="D46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5">
-      <c r="D48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="4:12">
-      <c r="D50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="4:12">
-      <c r="D52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="4:12">
-      <c r="D54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="4:12">
-      <c r="D56" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="4:12">
-      <c r="D57" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="4:12">
-      <c r="D58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="4:12">
-      <c r="D59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="4:12">
-      <c r="D60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="4:12">
-      <c r="D61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="4:12">
-      <c r="D62" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="4:12">
-      <c r="D64" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5">
-      <c r="D65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5">
-      <c r="D66" t="s">
-        <v>47</v>
-      </c>
-      <c r="E66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5">
-      <c r="D67" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5">
-      <c r="D68" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5">
-      <c r="D70" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5">
-      <c r="D71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5">
-      <c r="D72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5">
-      <c r="D74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5">
-      <c r="D75" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:AU57"/>
+  <dimension ref="A3:AU136"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -2136,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2184,22 +1842,750 @@
     </row>
     <row r="4" spans="1:47">
       <c r="D4" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:47">
       <c r="D5" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:47">
       <c r="D6" t="s">
-        <v>119</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13">
+      <c r="E33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="5:13">
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13">
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13">
+      <c r="E47" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13">
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6">
+      <c r="E84" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6">
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6">
+      <c r="E87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6">
+      <c r="E88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6">
+      <c r="E89" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="E90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="5:13">
+      <c r="E115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="5:13">
+      <c r="E117" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="5:13">
+      <c r="E119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="5:13">
+      <c r="E122" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+    </row>
+    <row r="123" spans="5:13">
+      <c r="E123" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="5:13">
+      <c r="E124" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="5:13">
+      <c r="E125" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="5:13">
+      <c r="E126" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="5:13">
+      <c r="E128" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6">
+      <c r="E129" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6">
+      <c r="E130" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6">
+      <c r="F131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6">
+      <c r="F132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6">
+      <c r="F133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6">
+      <c r="E135" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6">
+      <c r="F136" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:AU75"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:AL19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:47">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="4:12">
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12">
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12">
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="4:12">
+      <c r="D56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="4:12">
+      <c r="D57" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="4:12">
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="4:12">
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12">
+      <c r="D60" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12">
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12">
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12">
+      <c r="D64" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:AU57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:AB57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:47">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="D6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:47">
       <c r="D8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:47">
@@ -2209,12 +2595,12 @@
     </row>
     <row r="15" spans="1:47">
       <c r="D15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:47">
       <c r="D16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="4:4">
@@ -2224,87 +2610,87 @@
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="4:12">
       <c r="D33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="4:12">
       <c r="D34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="4:12">
       <c r="D35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="4:12">
       <c r="D37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="4:12">
       <c r="D38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="4:12">
       <c r="D39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="4:12">
       <c r="D40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="4:12">
       <c r="D42" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2317,83 +2703,83 @@
     </row>
     <row r="44" spans="4:12">
       <c r="D44" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="4:12">
       <c r="D45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="4:12">
       <c r="D46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="4:12">
       <c r="D47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="4:12">
       <c r="D48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="4:5">
       <c r="D49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="4:5">
       <c r="D51" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="4:5">
       <c r="D52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="4:5">
       <c r="D53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="4:5">
       <c r="D55" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="4:5">
       <c r="D57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2403,85 +2789,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:5">
       <c r="B3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="E4" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="8">
@@ -2618,6 +3001,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2" location="java"/>
+    <hyperlink ref="C7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
